--- a/data/PVAL01 comparisons.xlsx
+++ b/data/PVAL01 comparisons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\lab\CHEMISTRY\Technical Support Projects\Project 203 - PVAL &amp; Light\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Validation and Verification of methods\Chemistry\Project 203 - Investigation of the PV Room Lighting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>PVAL01 analysis</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>&lt;0.1</t>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+  </si>
+  <si>
+    <t>emu oil</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>Variation</t>
   </si>
 </sst>
 </file>
@@ -116,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,17 +424,17 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -440,8 +453,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -460,8 +476,12 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f>D4-E4</f>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -480,8 +500,12 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G22" si="0">D5-E5</f>
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -500,8 +524,12 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.9999999999999976E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -520,8 +548,12 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -540,8 +572,12 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -560,8 +596,12 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -580,8 +620,12 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -600,8 +644,12 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -620,8 +668,12 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -640,8 +692,12 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -660,8 +716,194 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0.04</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9271738</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>9280768</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>9285149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>0.04</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>9528530</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0.84</v>
+      </c>
+      <c r="E20">
+        <v>0.76</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>9522612</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0.38</v>
+      </c>
+      <c r="E21">
+        <v>0.36</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>9530210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0.06</v>
+      </c>
+      <c r="E22">
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>